--- a/sensor_data_processing/data_output_imported.xlsx
+++ b/sensor_data_processing/data_output_imported.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devRoot\data\signal_processing\sensor_data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C60212-BFBD-452E-8D41-2639B8CC7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07482DC8-5841-43B3-BC8D-6DD464476071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_output (2)" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,26 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'data_output (2)'!$A$1:$G$228</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - data_output" description="Connection to the 'data_output' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - data_output" description="Connection to the 'data_output' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data_output;Extended Properties=&quot;&quot;" command="SELECT * FROM [data_output]"/>
   </connection>
 </connections>
@@ -1114,7 +1127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,7 +1264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1431,8 +1444,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1547,6 +1566,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1592,9 +1622,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1640,9 +1672,159 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1658,7 +1840,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="Filter n° " tableColumnId="1"/>
@@ -1674,16 +1856,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data_output" displayName="data_output" ref="A1:G228" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G228"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="data_output" displayName="data_output" ref="A1:G228" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G228" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="Detec n° " queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Filter n° 2" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Data n°  " queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Prototype " queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Sick " queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="Antenna " queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Ratio " queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Detec n° " queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Filter n° 2" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Data n°  " queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Prototype " queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Sick " queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Antenna " queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Ratio " queryTableFieldId="7" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1985,11 +2167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G228"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,10 +2182,10 @@
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>226</v>
       </c>
@@ -2022,11 +2204,30 @@
       <c r="F1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1">
+        <f>(G2+G3+G4+G5+G6)/5</f>
+        <v>226.96107720000001</v>
+      </c>
+      <c r="K1">
+        <f>(G3+G4+G5+G6)/4</f>
+        <v>36.656271499999995</v>
+      </c>
+      <c r="M1">
+        <f>(D3/O$2+D4/O$3+D5/O$4+D6/O$5)/4*100</f>
+        <v>87.051767676767682</v>
+      </c>
+      <c r="N1">
+        <f>AVERAGE(O1:O5)</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="O1" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2045,11 +2246,25 @@
       <c r="F2">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2068,11 +2283,23 @@
       <c r="F3">
         <v>67</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2091,11 +2318,25 @@
       <c r="F4">
         <v>140</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2114,11 +2355,23 @@
       <c r="F5">
         <v>151</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2137,11 +2390,23 @@
       <c r="F6">
         <v>153</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" ref="J6" si="0">(G7+G8+G9+G10+G11)/5</f>
+        <v>170.24164780000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="1">(G8+G9+G10+G11)/4</f>
+        <v>38.34553725</v>
+      </c>
+      <c r="M6">
+        <f>(D8/O$2+D9/O$3+D10/O$4+D11/O$5)/4*100</f>
+        <v>96.155303030303045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2160,11 +2425,22 @@
       <c r="F7">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2183,11 +2459,20 @@
       <c r="F8">
         <v>67</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2206,11 +2491,20 @@
       <c r="F9">
         <v>140</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2229,11 +2523,20 @@
       <c r="F10">
         <v>151</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2252,11 +2555,23 @@
       <c r="F11">
         <v>153</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" ref="J11" si="2">(G12+G13+G14+G15+G16)/5</f>
+        <v>16.365758100000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11" si="3">(G13+G14+G15+G16)/4</f>
+        <v>0.32759887499999996</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11" si="4">(D13/O$2+D14/O$3+D15/O$4+D16/O$5)/4*100</f>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2275,11 +2590,22 @@
       <c r="F12">
         <v>22</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2298,11 +2624,20 @@
       <c r="F13">
         <v>67</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2321,11 +2656,20 @@
       <c r="F14">
         <v>140</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2344,11 +2688,20 @@
       <c r="F15">
         <v>151</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2367,11 +2720,23 @@
       <c r="F16">
         <v>153</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" ref="J16" si="5">(G17+G18+G19+G20+G21)/5</f>
+        <v>143.49526940000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="6">(G18+G19+G20+G21)/4</f>
+        <v>32.362016750000002</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="7">(D18/O$2+D19/O$3+D20/O$4+D21/O$5)/4*100</f>
+        <v>76.7361111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2390,11 +2755,22 @@
       <c r="F17">
         <v>22</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2413,11 +2789,20 @@
       <c r="F18">
         <v>67</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2436,11 +2821,20 @@
       <c r="F19">
         <v>140</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2459,11 +2853,20 @@
       <c r="F20">
         <v>151</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2482,11 +2885,23 @@
       <c r="F21">
         <v>153</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <f t="shared" ref="J21" si="8">(G22+G23+G24+G25+G26)/5</f>
+        <v>204.98859759999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21" si="9">(G23+G24+G25+G26)/4</f>
+        <v>35.420149500000001</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21" si="10">(D23/O$2+D24/O$3+D25/O$4+D26/O$5)/4*100</f>
+        <v>84.50126262626263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2505,11 +2920,22 @@
       <c r="F22">
         <v>22</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J22" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2528,11 +2954,20 @@
       <c r="F23">
         <v>67</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2551,11 +2986,20 @@
       <c r="F24">
         <v>140</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2574,11 +3018,20 @@
       <c r="F25">
         <v>151</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2597,11 +3050,23 @@
       <c r="F26">
         <v>153</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <f t="shared" ref="J26" si="11">(G27+G28+G29+G30+G31)/5</f>
+        <v>353.6415184</v>
+      </c>
+      <c r="K26">
+        <f>(G28+G29+G30+G31)/4</f>
+        <v>80.329097999999988</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="12">(D28/O$2+D29/O$3+D30/O$4+D31/O$5)/4*100</f>
+        <v>197.20328282828282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2620,11 +3085,22 @@
       <c r="F27">
         <v>22</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J27" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2643,11 +3119,20 @@
       <c r="F28">
         <v>67</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2666,11 +3151,20 @@
       <c r="F29">
         <v>140</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2689,11 +3183,20 @@
       <c r="F30">
         <v>151</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2712,11 +3215,23 @@
       <c r="F31">
         <v>153</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f t="shared" ref="J31" si="13">(G32+G33+G34+G35+G36)/5</f>
+        <v>265.32643900000005</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31" si="14">(G33+G34+G35+G36)/4</f>
+        <v>65.703348750000004</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="15">(D33/O$2+D34/O$3+D35/O$4+D36/O$5)/4*100</f>
+        <v>155.68181818181816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2735,11 +3250,22 @@
       <c r="F32">
         <v>22</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J32" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2758,11 +3284,20 @@
       <c r="F33">
         <v>67</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2781,11 +3316,20 @@
       <c r="F34">
         <v>140</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2804,11 +3348,20 @@
       <c r="F35">
         <v>151</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2827,11 +3380,23 @@
       <c r="F36">
         <v>153</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <f t="shared" ref="J36" si="16">(G37+G38+G39+G40+G41)/5</f>
+        <v>143.35700939999998</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="17">(G38+G39+G40+G41)/4</f>
+        <v>35.849119250000001</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="18">(D38/O$2+D39/O$3+D40/O$4+D41/O$5)/4*100</f>
+        <v>85.643939393939391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2850,11 +3415,22 @@
       <c r="F37">
         <v>22</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J37" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2873,11 +3449,20 @@
       <c r="F38">
         <v>67</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2896,11 +3481,20 @@
       <c r="F39">
         <v>140</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2919,11 +3513,20 @@
       <c r="F40">
         <v>151</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2942,11 +3545,23 @@
       <c r="F41">
         <v>153</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <f t="shared" ref="J41" si="19">(G42+G43+G44+G45+G46)/5</f>
+        <v>181.22343119999999</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41" si="20">(G43+G44+G45+G46)/4</f>
+        <v>34.383119000000001</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41" si="21">(D43/O$2+D44/O$3+D45/O$4+D46/O$5)/4*100</f>
+        <v>81.256313131313135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2965,11 +3580,22 @@
       <c r="F42">
         <v>22</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J42" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2988,11 +3614,20 @@
       <c r="F43">
         <v>67</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3011,11 +3646,20 @@
       <c r="F44">
         <v>140</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3034,11 +3678,20 @@
       <c r="F45">
         <v>151</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3057,11 +3710,23 @@
       <c r="F46">
         <v>153</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f t="shared" ref="J46" si="22">(G47+G48+G49+G50+G51)/5</f>
+        <v>1456.5101079999999</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46" si="23">(G48+G49+G50+G51)/4</f>
+        <v>208.97095999999999</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="24">(D48/O$2+D49/O$3+D50/O$4+D51/O$5)/4*100</f>
+        <v>208.97095959595958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3080,11 +3745,22 @@
       <c r="F47">
         <v>15</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J47" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3103,11 +3779,20 @@
       <c r="F48">
         <v>40</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3126,11 +3811,20 @@
       <c r="F49">
         <v>99</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3149,11 +3843,20 @@
       <c r="F50">
         <v>99</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3172,11 +3875,23 @@
       <c r="F51">
         <v>99</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <f t="shared" ref="J51" si="25">(G52+G53+G54+G55+G56)/5</f>
+        <v>1890.0000060000002</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51" si="26">(G53+G54+G55+G56)/4</f>
+        <v>400.83333249999998</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51" si="27">(D53/O$2+D54/O$3+D55/O$4+D56/O$5)/4*100</f>
+        <v>400.83333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3195,11 +3910,22 @@
       <c r="F52">
         <v>15</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J52" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3218,11 +3944,20 @@
       <c r="F53">
         <v>40</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3241,11 +3976,20 @@
       <c r="F54">
         <v>99</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3264,11 +4008,20 @@
       <c r="F55">
         <v>99</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3287,11 +4040,23 @@
       <c r="F56">
         <v>99</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <f>(G57+G58+G59+G60+G61)/5</f>
+        <v>766.8737440000001</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ref="K56" si="28">(G58+G59+G60+G61)/4</f>
+        <v>136.92550500000002</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56" si="29">(D58/O$2+D59/O$3+D60/O$4+D61/O$5)/4*100</f>
+        <v>136.92550505050505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3310,11 +4075,22 @@
       <c r="F57">
         <v>15</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J57" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3333,11 +4109,20 @@
       <c r="F58">
         <v>40</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3356,11 +4141,20 @@
       <c r="F59">
         <v>99</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3379,11 +4173,20 @@
       <c r="F60">
         <v>99</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3402,11 +4205,23 @@
       <c r="F61">
         <v>99</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <f t="shared" ref="J61" si="30">(G62+G63+G64+G65+G66)/5</f>
+        <v>1958.1363560000002</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ref="K61" si="31">(G63+G64+G65+G66)/4</f>
+        <v>519.33712000000003</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61" si="32">(D63/O$2+D64/O$3+D65/O$4+D66/O$5)/4*100</f>
+        <v>519.33712121212125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3425,11 +4240,22 @@
       <c r="F62">
         <v>15</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J62" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3448,11 +4274,20 @@
       <c r="F63">
         <v>40</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3471,11 +4306,20 @@
       <c r="F64">
         <v>99</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3494,11 +4338,20 @@
       <c r="F65">
         <v>99</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3517,11 +4370,23 @@
       <c r="F66">
         <v>99</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <f t="shared" ref="J66" si="33">(G67+G68+G69+G70+G71)/5</f>
+        <v>1237.631312</v>
+      </c>
+      <c r="K66">
+        <f>(G68+G69+G70+G71)/4</f>
+        <v>117.03914</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66" si="34">(D68/O$2+D69/O$3+D70/O$4+D71/O$5)/4*100</f>
+        <v>117.0391414141414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3540,11 +4405,22 @@
       <c r="F67">
         <v>15</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J67" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3563,11 +4439,20 @@
       <c r="F68">
         <v>40</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3586,11 +4471,20 @@
       <c r="F69">
         <v>99</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3609,11 +4503,20 @@
       <c r="F70">
         <v>99</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3632,11 +4535,23 @@
       <c r="F71">
         <v>99</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <f t="shared" ref="J71" si="35">(G72+G73+G74+G75+G76)/5</f>
+        <v>1742.954538</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ref="K71" si="36">(G73+G74+G75+G76)/4</f>
+        <v>340.3598475</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ref="M71" si="37">(D73/O$2+D74/O$3+D75/O$4+D76/O$5)/4*100</f>
+        <v>340.35984848484844</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3655,11 +4570,22 @@
       <c r="F72">
         <v>15</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J72" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3678,11 +4604,20 @@
       <c r="F73">
         <v>40</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3701,11 +4636,20 @@
       <c r="F74">
         <v>99</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3724,11 +4668,20 @@
       <c r="F75">
         <v>99</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3747,11 +4700,23 @@
       <c r="F76">
         <v>99</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <f t="shared" ref="J76" si="38">(G77+G78+G79+G80+G81)/5</f>
+        <v>1973.954538</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76" si="39">(G78+G79+G80+G81)/4</f>
+        <v>314.1098475</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76" si="40">(D78/O$2+D79/O$3+D80/O$4+D81/O$5)/4*100</f>
+        <v>314.1098484848485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3770,11 +4735,22 @@
       <c r="F77">
         <v>15</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J77" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -3793,11 +4769,20 @@
       <c r="F78">
         <v>40</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -3816,11 +4801,20 @@
       <c r="F79">
         <v>99</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J79" s="3">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -3839,11 +4833,20 @@
       <c r="F80">
         <v>99</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3862,11 +4865,23 @@
       <c r="F81">
         <v>99</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <f t="shared" ref="J81" si="41">(G82+G83+G84+G85+G86)/5</f>
+        <v>633.57574999999997</v>
+      </c>
+      <c r="K81">
+        <f>(G83+G84+G85+G86)/4</f>
+        <v>113.63636249999999</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ref="M81" si="42">(D83/O$2+D84/O$3+D85/O$4+D86/O$5)/4*100</f>
+        <v>113.63636363636363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3885,11 +4900,22 @@
       <c r="F82">
         <v>15</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J82" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3908,11 +4934,20 @@
       <c r="F83">
         <v>40</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3931,11 +4966,20 @@
       <c r="F84">
         <v>99</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3954,11 +4998,20 @@
       <c r="F85">
         <v>99</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3977,11 +5030,23 @@
       <c r="F86">
         <v>99</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <f t="shared" ref="J86" si="43">(G87+G88+G89+G90+G91)/5</f>
+        <v>928.0858579999998</v>
+      </c>
+      <c r="K86">
+        <f>(G88+G89+G90+G91)/4</f>
+        <v>125.1073225</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86" si="44">(D88/O$2+D89/O$3+D90/O$4+D91/O$5)/4*100</f>
+        <v>125.10732323232322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4000,11 +5065,22 @@
       <c r="F87">
         <v>15</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J87" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4023,11 +5099,20 @@
       <c r="F88">
         <v>40</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -4046,11 +5131,20 @@
       <c r="F89">
         <v>99</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -4069,11 +5163,20 @@
       <c r="F90">
         <v>99</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4092,11 +5195,23 @@
       <c r="F91">
         <v>99</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <f t="shared" ref="J91" si="45">(G92+G93+G94+G95+G96)/5</f>
+        <v>284.27495966000004</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ref="K91" si="46">(G93+G94+G95+G96)/4</f>
+        <v>17.748999574999999</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ref="M91" si="47">(D93/O$2+D94/O$3+D95/O$4+D96/O$5)/4*100</f>
+        <v>72.367424242424235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4115,11 +5230,22 @@
       <c r="F92">
         <v>55</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J92" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3</v>
       </c>
@@ -4138,11 +5264,20 @@
       <c r="F93">
         <v>179</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J93" s="3">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -4161,11 +5296,20 @@
       <c r="F94">
         <v>405</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3</v>
       </c>
@@ -4184,11 +5328,20 @@
       <c r="F95">
         <v>415</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
@@ -4207,11 +5360,23 @@
       <c r="F96">
         <v>400</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <f t="shared" ref="J96" si="48">(G97+G98+G99+G100+G101)/5</f>
+        <v>13.284869460000001</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ref="K96" si="49">(G98+G99+G100+G101)/4</f>
+        <v>10.071995825</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ref="M96" si="50">(D98/O$2+D99/O$3+D100/O$4+D101/O$5)/4*100</f>
+        <v>41.02272727272728</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3</v>
       </c>
@@ -4230,11 +5395,22 @@
       <c r="F97">
         <v>55</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J97" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3</v>
       </c>
@@ -4253,11 +5429,20 @@
       <c r="F98">
         <v>179</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>3</v>
       </c>
@@ -4276,11 +5461,20 @@
       <c r="F99">
         <v>405</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -4299,11 +5493,20 @@
       <c r="F100">
         <v>415</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3</v>
       </c>
@@ -4322,11 +5525,23 @@
       <c r="F101">
         <v>400</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <f t="shared" ref="J101" si="51">(G102+G103+G104+G105+G106)/5</f>
+        <v>29.969695999999999</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ref="K101" si="52">(G103+G104+G105+G106)/4</f>
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ref="M101" si="53">(D103/O$2+D104/O$3+D105/O$4+D106/O$5)/4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3</v>
       </c>
@@ -4345,11 +5560,22 @@
       <c r="F102">
         <v>55</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J102" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -4368,11 +5594,20 @@
       <c r="F103">
         <v>179</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3</v>
       </c>
@@ -4391,11 +5626,20 @@
       <c r="F104">
         <v>405</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J104" s="3">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3</v>
       </c>
@@ -4414,11 +5658,20 @@
       <c r="F105">
         <v>415</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3</v>
       </c>
@@ -4437,11 +5690,23 @@
       <c r="F106">
         <v>400</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <f t="shared" ref="J106" si="54">(G107+G108+G109+G110+G111)/5</f>
+        <v>234.39311346</v>
+      </c>
+      <c r="K106">
+        <f t="shared" ref="K106" si="55">(G108+G109+G110+G111)/4</f>
+        <v>18.995191824999999</v>
+      </c>
+      <c r="M106">
+        <f t="shared" ref="M106" si="56">(D108/O$2+D109/O$3+D110/O$4+D111/O$5)/4*100</f>
+        <v>77.417929292929287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3</v>
       </c>
@@ -4460,11 +5725,22 @@
       <c r="F107">
         <v>55</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J107" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -4483,11 +5759,20 @@
       <c r="F108">
         <v>179</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J108" s="3">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3</v>
       </c>
@@ -4506,11 +5791,20 @@
       <c r="F109">
         <v>405</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
@@ -4529,11 +5823,20 @@
       <c r="F110">
         <v>415</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3</v>
       </c>
@@ -4552,11 +5855,23 @@
       <c r="F111">
         <v>400</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <f t="shared" ref="J111" si="57">(G112+G113+G114+G115+G116)/5</f>
+        <v>345.38787139999999</v>
+      </c>
+      <c r="K111">
+        <f t="shared" ref="K111" si="58">(G113+G114+G115+G116)/4</f>
+        <v>16.602264250000001</v>
+      </c>
+      <c r="M111">
+        <f t="shared" ref="M111" si="59">(D113/O$2+D114/O$3+D115/O$4+D116/O$5)/4*100</f>
+        <v>67.607323232323239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3</v>
       </c>
@@ -4575,11 +5890,22 @@
       <c r="F112">
         <v>55</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J112" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3</v>
       </c>
@@ -4598,11 +5924,20 @@
       <c r="F113">
         <v>179</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J113" s="3">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3</v>
       </c>
@@ -4621,11 +5956,20 @@
       <c r="F114">
         <v>405</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -4644,11 +5988,20 @@
       <c r="F115">
         <v>415</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3</v>
       </c>
@@ -4667,11 +6020,23 @@
       <c r="F116">
         <v>400</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <f t="shared" ref="J116" si="60">(G117+G118+G119+G120+G121)/5</f>
+        <v>357.29357060000001</v>
+      </c>
+      <c r="K116">
+        <f t="shared" ref="K116" si="61">(G118+G119+G120+G121)/4</f>
+        <v>38.454088249999998</v>
+      </c>
+      <c r="M116">
+        <f t="shared" ref="M116" si="62">(D118/O$2+D119/O$3+D120/O$4+D121/O$5)/4*100</f>
+        <v>156.12373737373738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3</v>
       </c>
@@ -4690,11 +6055,22 @@
       <c r="F117">
         <v>55</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J117" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3</v>
       </c>
@@ -4713,11 +6089,20 @@
       <c r="F118">
         <v>179</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3</v>
       </c>
@@ -4736,11 +6121,20 @@
       <c r="F119">
         <v>405</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3</v>
       </c>
@@ -4759,11 +6153,20 @@
       <c r="F120">
         <v>415</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3</v>
       </c>
@@ -4782,11 +6185,23 @@
       <c r="F121">
         <v>400</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <f t="shared" ref="J121" si="63">(G122+G123+G124+G125+G126)/5</f>
+        <v>412.74094960000002</v>
+      </c>
+      <c r="K121">
+        <f t="shared" ref="K121" si="64">(G123+G124+G125+G126)/4</f>
+        <v>33.274661999999999</v>
+      </c>
+      <c r="M121">
+        <f t="shared" ref="M121" si="65">(D123/O$2+D124/O$3+D125/O$4+D126/O$5)/4*100</f>
+        <v>134.61489898989899</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3</v>
       </c>
@@ -4805,11 +6220,22 @@
       <c r="F122">
         <v>55</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J122" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
@@ -4828,11 +6254,20 @@
       <c r="F123">
         <v>179</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J123" s="3">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4851,11 +6286,20 @@
       <c r="F124">
         <v>405</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J124" s="3">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4874,11 +6318,20 @@
       <c r="F125">
         <v>415</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -4897,11 +6350,23 @@
       <c r="F126">
         <v>400</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <f t="shared" ref="J126" si="66">(G127+G128+G129+G130+G131)/5</f>
+        <v>185.36027860000002</v>
+      </c>
+      <c r="K126">
+        <f t="shared" ref="K126" si="67">(G128+G129+G130+G131)/4</f>
+        <v>15.63974325</v>
+      </c>
+      <c r="M126">
+        <f t="shared" ref="M126" si="68">(D128/O$2+D129/O$3+D130/O$4+D131/O$5)/4*100</f>
+        <v>63.604797979797979</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3</v>
       </c>
@@ -4920,11 +6385,22 @@
       <c r="F127">
         <v>55</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J127" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3</v>
       </c>
@@ -4943,11 +6419,20 @@
       <c r="F128">
         <v>179</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J128" s="3">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
@@ -4966,11 +6451,20 @@
       <c r="F129">
         <v>405</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J129" s="3">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3</v>
       </c>
@@ -4989,11 +6483,20 @@
       <c r="F130">
         <v>415</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3</v>
       </c>
@@ -5012,11 +6515,23 @@
       <c r="F131">
         <v>400</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <f t="shared" ref="J131" si="69">(G132+G133+G134+G135+G136)/5</f>
+        <v>334.15924319999999</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131" si="70">(G133+G134+G135+G136)/4</f>
+        <v>12.149804</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ref="M131" si="71">(D133/O$2+D134/O$3+D135/O$4+D136/O$5)/4*100</f>
+        <v>49.381313131313135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3</v>
       </c>
@@ -5035,11 +6550,22 @@
       <c r="F132">
         <v>55</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J132" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3</v>
       </c>
@@ -5058,11 +6584,20 @@
       <c r="F133">
         <v>179</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J133" s="3">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3</v>
       </c>
@@ -5081,11 +6616,20 @@
       <c r="F134">
         <v>405</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3</v>
       </c>
@@ -5104,11 +6648,20 @@
       <c r="F135">
         <v>415</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -5127,11 +6680,23 @@
       <c r="F136">
         <v>400</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <f t="shared" ref="J136" si="72">(G137+G138+G139+G140+G141)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K136">
+        <f t="shared" ref="K136" si="73">(G138+G139+G140+G141)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M136">
+        <f t="shared" ref="M136" si="74">(D138/O$2+D139/O$3+D140/O$4+D141/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4</v>
       </c>
@@ -5150,11 +6715,22 @@
       <c r="F137">
         <v>4615</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J137" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4</v>
       </c>
@@ -5173,11 +6749,20 @@
       <c r="F138">
         <v>11684</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J138" s="3">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -5196,11 +6781,20 @@
       <c r="F139">
         <v>40052</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J139" s="3">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4</v>
       </c>
@@ -5219,11 +6813,20 @@
       <c r="F140">
         <v>41191</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4</v>
       </c>
@@ -5242,11 +6845,23 @@
       <c r="F141">
         <v>40837</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <f t="shared" ref="J141" si="75">(G142+G143+G144+G145+G146)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141" si="76">(G143+G144+G145+G146)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M141">
+        <f t="shared" ref="M141" si="77">(D143/O$2+D144/O$3+D145/O$4+D146/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4</v>
       </c>
@@ -5265,11 +6880,22 @@
       <c r="F142">
         <v>4615</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J142" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K142" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4</v>
       </c>
@@ -5288,11 +6914,20 @@
       <c r="F143">
         <v>11684</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J143" s="3">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>4</v>
       </c>
@@ -5311,11 +6946,20 @@
       <c r="F144">
         <v>40052</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J144" s="3">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>4</v>
       </c>
@@ -5334,11 +6978,20 @@
       <c r="F145">
         <v>41191</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>4</v>
       </c>
@@ -5357,11 +7010,23 @@
       <c r="F146">
         <v>40837</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <f t="shared" ref="J146" si="78">(G147+G148+G149+G150+G151)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ref="K146" si="79">(G148+G149+G150+G151)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M146">
+        <f t="shared" ref="M146" si="80">(D148/O$2+D149/O$3+D150/O$4+D151/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>4</v>
       </c>
@@ -5380,11 +7045,22 @@
       <c r="F147">
         <v>4615</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J147" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K147" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>4</v>
       </c>
@@ -5403,11 +7079,20 @@
       <c r="F148">
         <v>11684</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J148" s="3">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4</v>
       </c>
@@ -5426,11 +7111,20 @@
       <c r="F149">
         <v>40052</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J149" s="3">
+        <v>0</v>
+      </c>
+      <c r="K149" s="3">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>4</v>
       </c>
@@ -5449,11 +7143,20 @@
       <c r="F150">
         <v>41191</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>4</v>
       </c>
@@ -5472,11 +7175,23 @@
       <c r="F151">
         <v>40837</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <f t="shared" ref="J151" si="81">(G152+G153+G154+G155+G156)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K151">
+        <f t="shared" ref="K151" si="82">(G153+G154+G155+G156)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M151">
+        <f t="shared" ref="M151" si="83">(D153/O$2+D154/O$3+D155/O$4+D156/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>4</v>
       </c>
@@ -5495,11 +7210,22 @@
       <c r="F152">
         <v>4615</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J152" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K152" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4</v>
       </c>
@@ -5518,11 +7244,20 @@
       <c r="F153">
         <v>11684</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
+      <c r="K153" s="3">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>4</v>
       </c>
@@ -5541,11 +7276,20 @@
       <c r="F154">
         <v>40052</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J154" s="3">
+        <v>0</v>
+      </c>
+      <c r="K154" s="3">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>4</v>
       </c>
@@ -5564,11 +7308,20 @@
       <c r="F155">
         <v>41191</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>4</v>
       </c>
@@ -5587,11 +7340,23 @@
       <c r="F156">
         <v>40837</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <f t="shared" ref="J156" si="84">(G157+G158+G159+G160+G161)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K156">
+        <f t="shared" ref="K156" si="85">(G158+G159+G160+G161)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M156">
+        <f t="shared" ref="M156" si="86">(D158/O$2+D159/O$3+D160/O$4+D161/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>4</v>
       </c>
@@ -5610,11 +7375,22 @@
       <c r="F157">
         <v>4615</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J157" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K157" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>4</v>
       </c>
@@ -5633,11 +7409,20 @@
       <c r="F158">
         <v>11684</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J158" s="3">
+        <v>0</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>4</v>
       </c>
@@ -5656,11 +7441,20 @@
       <c r="F159">
         <v>40052</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J159" s="3">
+        <v>0</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>4</v>
       </c>
@@ -5679,11 +7473,20 @@
       <c r="F160">
         <v>41191</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4</v>
       </c>
@@ -5702,11 +7505,23 @@
       <c r="F161">
         <v>40837</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <f t="shared" ref="J161" si="87">(G162+G163+G164+G165+G166)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K161">
+        <f t="shared" ref="K161" si="88">(G163+G164+G165+G166)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M161">
+        <f t="shared" ref="M161" si="89">(D163/O$2+D164/O$3+D165/O$4+D166/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4</v>
       </c>
@@ -5725,11 +7540,22 @@
       <c r="F162">
         <v>4615</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J162" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4</v>
       </c>
@@ -5748,11 +7574,20 @@
       <c r="F163">
         <v>11684</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J163" s="3">
+        <v>0</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4</v>
       </c>
@@ -5771,11 +7606,20 @@
       <c r="F164">
         <v>40052</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J164" s="3">
+        <v>0</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4</v>
       </c>
@@ -5794,11 +7638,20 @@
       <c r="F165">
         <v>41191</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4</v>
       </c>
@@ -5817,11 +7670,23 @@
       <c r="F166">
         <v>40837</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <f t="shared" ref="J166" si="90">(G167+G168+G169+G170+G171)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K166">
+        <f t="shared" ref="K166" si="91">(G168+G169+G170+G171)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M166">
+        <f t="shared" ref="M166" si="92">(D168/O$2+D169/O$3+D170/O$4+D171/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4</v>
       </c>
@@ -5840,11 +7705,22 @@
       <c r="F167">
         <v>4615</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J167" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4</v>
       </c>
@@ -5863,11 +7739,20 @@
       <c r="F168">
         <v>11684</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J168" s="3">
+        <v>0</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>4</v>
       </c>
@@ -5886,11 +7771,20 @@
       <c r="F169">
         <v>40052</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J169" s="3">
+        <v>0</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>4</v>
       </c>
@@ -5909,11 +7803,20 @@
       <c r="F170">
         <v>41191</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4</v>
       </c>
@@ -5932,11 +7835,23 @@
       <c r="F171">
         <v>40837</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J171">
+        <f t="shared" ref="J171" si="93">(G172+G173+G174+G175+G176)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K171">
+        <f t="shared" ref="K171" si="94">(G173+G174+G175+G176)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M171">
+        <f t="shared" ref="M171" si="95">(D173/O$2+D174/O$3+D175/O$4+D176/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4</v>
       </c>
@@ -5955,11 +7870,22 @@
       <c r="F172">
         <v>4615</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J172" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K172" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -5978,11 +7904,20 @@
       <c r="F173">
         <v>11684</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J173" s="3">
+        <v>0</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>4</v>
       </c>
@@ -6001,11 +7936,20 @@
       <c r="F174">
         <v>40052</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J174" s="3">
+        <v>0</v>
+      </c>
+      <c r="K174" s="3">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>4</v>
       </c>
@@ -6024,11 +7968,20 @@
       <c r="F175">
         <v>41191</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>4</v>
       </c>
@@ -6047,11 +8000,23 @@
       <c r="F176">
         <v>40837</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J176">
+        <f t="shared" ref="J176" si="96">(G177+G178+G179+G180+G181)/5</f>
+        <v>142.86507799999998</v>
+      </c>
+      <c r="K176">
+        <f t="shared" ref="K176" si="97">(G178+G179+G180+G181)/4</f>
+        <v>148.137145</v>
+      </c>
+      <c r="M176">
+        <f t="shared" ref="M176" si="98">(D178/O$2+D179/O$3+D180/O$4+D181/O$5)/4*100</f>
+        <v>56419.52651515152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>4</v>
       </c>
@@ -6070,11 +8035,22 @@
       <c r="F177">
         <v>4615</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J177" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>4</v>
       </c>
@@ -6093,11 +8069,20 @@
       <c r="F178">
         <v>11684</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>4</v>
       </c>
@@ -6116,11 +8101,20 @@
       <c r="F179">
         <v>40052</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G179" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J179" s="3">
+        <v>0</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>4</v>
       </c>
@@ -6139,11 +8133,20 @@
       <c r="F180">
         <v>41191</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>4</v>
       </c>
@@ -6162,11 +8165,23 @@
       <c r="F181">
         <v>40837</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J181" t="e">
+        <f t="shared" ref="J181" si="99">(G182+G183+G184+G185+G186)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K181" t="e">
+        <f t="shared" ref="K181" si="100">(G183+G184+G185+G186)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M181">
+        <f t="shared" ref="M181" si="101">(D183/O$2+D184/O$3+D185/O$4+D186/O$5)/4*100</f>
+        <v>62.380050505050512</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>5</v>
       </c>
@@ -6185,11 +8200,22 @@
       <c r="F182">
         <v>0</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J182" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>5</v>
       </c>
@@ -6208,11 +8234,20 @@
       <c r="F183">
         <v>0</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+      <c r="K183" s="3">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>5</v>
       </c>
@@ -6231,11 +8266,20 @@
       <c r="F184">
         <v>0</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="G184" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J184" s="3">
+        <v>0</v>
+      </c>
+      <c r="K184" s="3">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>5</v>
       </c>
@@ -6254,11 +8298,20 @@
       <c r="F185">
         <v>0</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5</v>
       </c>
@@ -6277,11 +8330,23 @@
       <c r="F186">
         <v>0</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J186" t="e">
+        <f t="shared" ref="J186" si="102">(G187+G188+G189+G190+G191)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K186" t="e">
+        <f t="shared" ref="K186" si="103">(G188+G189+G190+G191)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M186">
+        <f t="shared" ref="M186" si="104">(D188/O$2+D189/O$3+D190/O$4+D191/O$5)/4*100</f>
+        <v>54.311868686868678</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>5</v>
       </c>
@@ -6300,11 +8365,22 @@
       <c r="F187">
         <v>0</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G187" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J187" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K187" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5</v>
       </c>
@@ -6323,11 +8399,20 @@
       <c r="F188">
         <v>0</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G188" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J188" s="3">
+        <v>0</v>
+      </c>
+      <c r="K188" s="3">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>5</v>
       </c>
@@ -6346,11 +8431,20 @@
       <c r="F189">
         <v>0</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J189" s="3">
+        <v>0</v>
+      </c>
+      <c r="K189" s="3">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>5</v>
       </c>
@@ -6369,11 +8463,20 @@
       <c r="F190">
         <v>0</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>5</v>
       </c>
@@ -6392,11 +8495,23 @@
       <c r="F191">
         <v>0</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J191" t="e">
+        <f t="shared" ref="J191" si="105">(G192+G193+G194+G195+G196)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K191" t="e">
+        <f t="shared" ref="K191" si="106">(G193+G194+G195+G196)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M191">
+        <f t="shared" ref="M191" si="107">(D193/O$2+D194/O$3+D195/O$4+D196/O$5)/4*100</f>
+        <v>12.108585858585858</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>5</v>
       </c>
@@ -6415,11 +8530,22 @@
       <c r="F192">
         <v>0</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J192" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K192" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>5</v>
       </c>
@@ -6438,11 +8564,20 @@
       <c r="F193">
         <v>0</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J193" s="3">
+        <v>0</v>
+      </c>
+      <c r="K193" s="3">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>5</v>
       </c>
@@ -6461,11 +8596,20 @@
       <c r="F194">
         <v>0</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G194" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J194" s="3">
+        <v>0</v>
+      </c>
+      <c r="K194" s="3">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>5</v>
       </c>
@@ -6484,11 +8628,20 @@
       <c r="F195">
         <v>0</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>5</v>
       </c>
@@ -6507,11 +8660,23 @@
       <c r="F196">
         <v>0</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J196" t="e">
+        <f t="shared" ref="J196" si="108">(G197+G198+G199+G200+G201)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K196" t="e">
+        <f t="shared" ref="K196" si="109">(G198+G199+G200+G201)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M196">
+        <f t="shared" ref="M196" si="110">(D198/O$2+D199/O$3+D200/O$4+D201/O$5)/4*100</f>
+        <v>71.818181818181827</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>5</v>
       </c>
@@ -6530,11 +8695,22 @@
       <c r="F197">
         <v>0</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J197" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K197" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5</v>
       </c>
@@ -6553,11 +8729,20 @@
       <c r="F198">
         <v>0</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J198" s="3">
+        <v>0</v>
+      </c>
+      <c r="K198" s="3">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>5</v>
       </c>
@@ -6576,11 +8761,20 @@
       <c r="F199">
         <v>0</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G199" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J199" s="3">
+        <v>0</v>
+      </c>
+      <c r="K199" s="3">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>5</v>
       </c>
@@ -6599,11 +8793,20 @@
       <c r="F200">
         <v>0</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>5</v>
       </c>
@@ -6622,11 +8825,23 @@
       <c r="F201">
         <v>0</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G201" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J201" t="e">
+        <f t="shared" ref="J201" si="111">(G202+G203+G204+G205+G206)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K201" t="e">
+        <f t="shared" ref="K201" si="112">(G203+G204+G205+G206)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M201">
+        <f t="shared" ref="M201" si="113">(D203/O$2+D204/O$3+D205/O$4+D206/O$5)/4*100</f>
+        <v>56.47727272727272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>5</v>
       </c>
@@ -6645,11 +8860,22 @@
       <c r="F202">
         <v>0</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G202" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J202" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>5</v>
       </c>
@@ -6668,11 +8894,20 @@
       <c r="F203">
         <v>0</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J203" s="3">
+        <v>0</v>
+      </c>
+      <c r="K203" s="3">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>5</v>
       </c>
@@ -6691,11 +8926,20 @@
       <c r="F204">
         <v>0</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G204" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J204" s="3">
+        <v>0</v>
+      </c>
+      <c r="K204" s="3">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>5</v>
       </c>
@@ -6714,11 +8958,20 @@
       <c r="F205">
         <v>0</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G205" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>5</v>
       </c>
@@ -6737,11 +8990,23 @@
       <c r="F206">
         <v>0</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J206" t="e">
+        <f t="shared" ref="J206" si="114">(G207+G208+G209+G210+G211)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K206" t="e">
+        <f t="shared" ref="K206" si="115">(G208+G209+G210+G211)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M206">
+        <f t="shared" ref="M206" si="116">(D208/O$2+D209/O$3+D210/O$4+D211/O$5)/4*100</f>
+        <v>69.930555555555557</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>5</v>
       </c>
@@ -6760,11 +9025,22 @@
       <c r="F207">
         <v>0</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J207" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K207" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>5</v>
       </c>
@@ -6783,11 +9059,20 @@
       <c r="F208">
         <v>0</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G208" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J208" s="3">
+        <v>0</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>5</v>
       </c>
@@ -6806,11 +9091,20 @@
       <c r="F209">
         <v>0</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G209" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J209" s="3">
+        <v>0</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>5</v>
       </c>
@@ -6829,11 +9123,20 @@
       <c r="F210">
         <v>0</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>5</v>
       </c>
@@ -6852,11 +9155,23 @@
       <c r="F211">
         <v>0</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J211" t="e">
+        <f t="shared" ref="J211" si="117">(G212+G213+G214+G215+G216)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K211" t="e">
+        <f t="shared" ref="K211" si="118">(G213+G214+G215+G216)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M211">
+        <f t="shared" ref="M211" si="119">(D213/O$2+D214/O$3+D215/O$4+D216/O$5)/4*100</f>
+        <v>20.959595959595958</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>5</v>
       </c>
@@ -6875,11 +9190,22 @@
       <c r="F212">
         <v>0</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J212" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>5</v>
       </c>
@@ -6898,11 +9224,20 @@
       <c r="F213">
         <v>0</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J213" s="3">
+        <v>0</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>5</v>
       </c>
@@ -6921,11 +9256,20 @@
       <c r="F214">
         <v>0</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J214" s="3">
+        <v>0</v>
+      </c>
+      <c r="K214" s="3">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>5</v>
       </c>
@@ -6944,11 +9288,20 @@
       <c r="F215">
         <v>0</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>5</v>
       </c>
@@ -6967,11 +9320,23 @@
       <c r="F216">
         <v>0</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J216" t="e">
+        <f t="shared" ref="J216" si="120">(G217+G218+G219+G220+G221)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K216" t="e">
+        <f t="shared" ref="K216" si="121">(G218+G219+G220+G221)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M216">
+        <f t="shared" ref="M216" si="122">(D218/O$2+D219/O$3+D220/O$4+D221/O$5)/4*100</f>
+        <v>46.679292929292934</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>5</v>
       </c>
@@ -6990,11 +9355,22 @@
       <c r="F217">
         <v>0</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J217" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K217" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>5</v>
       </c>
@@ -7013,11 +9389,20 @@
       <c r="F218">
         <v>0</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J218" s="3">
+        <v>0</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>5</v>
       </c>
@@ -7036,11 +9421,20 @@
       <c r="F219">
         <v>0</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J219" s="3">
+        <v>0</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>5</v>
       </c>
@@ -7059,11 +9453,20 @@
       <c r="F220">
         <v>0</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>5</v>
       </c>
@@ -7082,11 +9485,23 @@
       <c r="F221">
         <v>0</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J221" t="e">
+        <f t="shared" ref="J221" si="123">(G222+G223+G224+G225+G226)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K221" t="e">
+        <f t="shared" ref="K221" si="124">(G223+G224+G225+G226)/4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M221">
+        <f t="shared" ref="M221" si="125">(D223/O$2+D224/O$3+D225/O$4+D226/O$5)/4*100</f>
+        <v>23.484848484848484</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>5</v>
       </c>
@@ -7105,11 +9520,22 @@
       <c r="F222">
         <v>0</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J222" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K222" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>5</v>
       </c>
@@ -7128,11 +9554,20 @@
       <c r="F223">
         <v>0</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J223" s="3">
+        <v>0</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>5</v>
       </c>
@@ -7151,11 +9586,20 @@
       <c r="F224">
         <v>0</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J224" s="3">
+        <v>0</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>5</v>
       </c>
@@ -7174,11 +9618,20 @@
       <c r="F225">
         <v>0</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>5</v>
       </c>
@@ -7197,30 +9650,71 @@
       <c r="F226">
         <v>0</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="G226" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G227" s="1" t="s">
+      <c r="J226" t="e">
+        <f t="shared" ref="J226" si="126">(G227+G228+G229+G230+G231)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K226" t="e">
+        <f t="shared" ref="K226" si="127">(G228+G229+G230+G231)/5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M226">
+        <f t="shared" ref="M226" si="128">(D228/O$2+D229/O$3+D230/O$4+D231/O$5)/4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G227" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G228" s="1" t="s">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G228" s="3" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+      <formula>80</formula>
+      <formula>130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+      <formula>80</formula>
+      <formula>130</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>80</formula>
+      <formula>130</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
